--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Unc5b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H2">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.471295829559409</v>
+        <v>9.581373333333334</v>
       </c>
       <c r="N2">
-        <v>9.471295829559409</v>
+        <v>28.74412</v>
       </c>
       <c r="O2">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="P2">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="Q2">
-        <v>17.41437070264537</v>
+        <v>19.07495254281334</v>
       </c>
       <c r="R2">
-        <v>17.41437070264537</v>
+        <v>171.67457288532</v>
       </c>
       <c r="S2">
-        <v>0.0699469984334922</v>
+        <v>0.06843235112368763</v>
       </c>
       <c r="T2">
-        <v>0.0699469984334922</v>
+        <v>0.06843235112368763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H3">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.40536601602634</v>
+        <v>4.468510333333334</v>
       </c>
       <c r="N3">
-        <v>4.40536601602634</v>
+        <v>13.405531</v>
       </c>
       <c r="O3">
-        <v>0.2844406885794314</v>
+        <v>0.284234263364153</v>
       </c>
       <c r="P3">
-        <v>0.2844406885794314</v>
+        <v>0.2842342633641529</v>
       </c>
       <c r="Q3">
-        <v>8.09991349277572</v>
+        <v>8.896075706482335</v>
       </c>
       <c r="R3">
-        <v>8.09991349277572</v>
+        <v>80.06468135834101</v>
       </c>
       <c r="S3">
-        <v>0.03253431582827969</v>
+        <v>0.03191511879269498</v>
       </c>
       <c r="T3">
-        <v>0.03253431582827969</v>
+        <v>0.03191511879269497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H4">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.12641662266656</v>
+        <v>0.15426</v>
       </c>
       <c r="N4">
-        <v>0.12641662266656</v>
+        <v>0.46278</v>
       </c>
       <c r="O4">
-        <v>0.008162325461346522</v>
+        <v>0.00981221351095027</v>
       </c>
       <c r="P4">
-        <v>0.008162325461346522</v>
+        <v>0.009812213510950268</v>
       </c>
       <c r="Q4">
-        <v>0.2324355578907439</v>
+        <v>0.30710651562</v>
       </c>
       <c r="R4">
-        <v>0.2324355578907439</v>
+        <v>2.76395864058</v>
       </c>
       <c r="S4">
-        <v>0.0009336064955365864</v>
+        <v>0.001101760062684826</v>
       </c>
       <c r="T4">
-        <v>0.0009336064955365864</v>
+        <v>0.001101760062684826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H5">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48474093630563</v>
+        <v>1.517079666666667</v>
       </c>
       <c r="N5">
-        <v>1.48474093630563</v>
+        <v>4.551239</v>
       </c>
       <c r="O5">
-        <v>0.09586507290165604</v>
+        <v>0.09649883056174381</v>
       </c>
       <c r="P5">
-        <v>0.09586507290165604</v>
+        <v>0.0964988305617438</v>
       </c>
       <c r="Q5">
-        <v>2.729914631271928</v>
+        <v>3.020258332347667</v>
       </c>
       <c r="R5">
-        <v>2.729914631271928</v>
+        <v>27.182324991129</v>
       </c>
       <c r="S5">
-        <v>0.01096504362389267</v>
+        <v>0.0108353285922763</v>
       </c>
       <c r="T5">
-        <v>0.01096504362389267</v>
+        <v>0.0108353285922763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H6">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.471295829559409</v>
+        <v>9.581373333333334</v>
       </c>
       <c r="N6">
-        <v>9.471295829559409</v>
+        <v>28.74412</v>
       </c>
       <c r="O6">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="P6">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="Q6">
-        <v>101.8211770105863</v>
+        <v>109.4926129105778</v>
       </c>
       <c r="R6">
-        <v>101.8211770105863</v>
+        <v>985.4335161952001</v>
       </c>
       <c r="S6">
-        <v>0.4089774951083308</v>
+        <v>0.392810252886824</v>
       </c>
       <c r="T6">
-        <v>0.4089774951083308</v>
+        <v>0.392810252886824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H7">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.40536601602634</v>
+        <v>4.468510333333334</v>
       </c>
       <c r="N7">
-        <v>4.40536601602634</v>
+        <v>13.405531</v>
       </c>
       <c r="O7">
-        <v>0.2844406885794314</v>
+        <v>0.284234263364153</v>
       </c>
       <c r="P7">
-        <v>0.2844406885794314</v>
+        <v>0.2842342633641529</v>
       </c>
       <c r="Q7">
-        <v>47.35989256235759</v>
+        <v>51.06458700575111</v>
       </c>
       <c r="R7">
-        <v>47.35989256235759</v>
+        <v>459.58128305176</v>
       </c>
       <c r="S7">
-        <v>0.1902269331137164</v>
+        <v>0.1831967728423121</v>
       </c>
       <c r="T7">
-        <v>0.1902269331137164</v>
+        <v>0.183196772842312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H8">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.12641662266656</v>
+        <v>0.15426</v>
       </c>
       <c r="N8">
-        <v>0.12641662266656</v>
+        <v>0.46278</v>
       </c>
       <c r="O8">
-        <v>0.008162325461346522</v>
+        <v>0.00981221351095027</v>
       </c>
       <c r="P8">
-        <v>0.008162325461346522</v>
+        <v>0.009812213510950268</v>
       </c>
       <c r="Q8">
-        <v>1.359042051399114</v>
+        <v>1.7628298032</v>
       </c>
       <c r="R8">
-        <v>1.359042051399114</v>
+        <v>15.8654682288</v>
       </c>
       <c r="S8">
-        <v>0.005458762413150157</v>
+        <v>0.006324240534445458</v>
       </c>
       <c r="T8">
-        <v>0.005458762413150157</v>
+        <v>0.006324240534445458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H9">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48474093630563</v>
+        <v>1.517079666666667</v>
       </c>
       <c r="N9">
-        <v>1.48474093630563</v>
+        <v>4.551239</v>
       </c>
       <c r="O9">
-        <v>0.09586507290165604</v>
+        <v>0.09649883056174381</v>
       </c>
       <c r="P9">
-        <v>0.09586507290165604</v>
+        <v>0.0964988305617438</v>
       </c>
       <c r="Q9">
-        <v>15.96170919069178</v>
+        <v>17.33666050971556</v>
       </c>
       <c r="R9">
-        <v>15.96170919069178</v>
+        <v>156.02994458744</v>
       </c>
       <c r="S9">
-        <v>0.06411220174539956</v>
+        <v>0.06219614107296991</v>
       </c>
       <c r="T9">
-        <v>0.06411220174539956</v>
+        <v>0.0621961410729699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H10">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.471295829559409</v>
+        <v>9.581373333333334</v>
       </c>
       <c r="N10">
-        <v>9.471295829559409</v>
+        <v>28.74412</v>
       </c>
       <c r="O10">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="P10">
-        <v>0.6115319130575659</v>
+        <v>0.6094546925631529</v>
       </c>
       <c r="Q10">
-        <v>33.01463698351672</v>
+        <v>2.171554390177778</v>
       </c>
       <c r="R10">
-        <v>33.01463698351672</v>
+        <v>19.5439895116</v>
       </c>
       <c r="S10">
-        <v>0.1326074195157429</v>
+        <v>0.007790560536352118</v>
       </c>
       <c r="T10">
-        <v>0.1326074195157429</v>
+        <v>0.007790560536352118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H11">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.40536601602634</v>
+        <v>4.468510333333334</v>
       </c>
       <c r="N11">
-        <v>4.40536601602634</v>
+        <v>13.405531</v>
       </c>
       <c r="O11">
-        <v>0.2844406885794314</v>
+        <v>0.284234263364153</v>
       </c>
       <c r="P11">
-        <v>0.2844406885794314</v>
+        <v>0.2842342633641529</v>
       </c>
       <c r="Q11">
-        <v>15.35603600773566</v>
+        <v>1.012758076981111</v>
       </c>
       <c r="R11">
-        <v>15.35603600773566</v>
+        <v>9.11482269283</v>
       </c>
       <c r="S11">
-        <v>0.06167943963743525</v>
+        <v>0.003633320511375717</v>
       </c>
       <c r="T11">
-        <v>0.06167943963743525</v>
+        <v>0.003633320511375716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H12">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.12641662266656</v>
+        <v>0.15426</v>
       </c>
       <c r="N12">
-        <v>0.12641662266656</v>
+        <v>0.46278</v>
       </c>
       <c r="O12">
-        <v>0.008162325461346522</v>
+        <v>0.00981221351095027</v>
       </c>
       <c r="P12">
-        <v>0.008162325461346522</v>
+        <v>0.009812213510950268</v>
       </c>
       <c r="Q12">
-        <v>0.440657644014572</v>
+        <v>0.03496200059999999</v>
       </c>
       <c r="R12">
-        <v>0.440657644014572</v>
+        <v>0.3146580054</v>
       </c>
       <c r="S12">
-        <v>0.001769956552659777</v>
+        <v>0.0001254279346528275</v>
       </c>
       <c r="T12">
-        <v>0.001769956552659777</v>
+        <v>0.0001254279346528275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.67993</v>
+      </c>
+      <c r="I13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.517079666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.551239</v>
+      </c>
+      <c r="O13">
+        <v>0.09649883056174381</v>
+      </c>
+      <c r="P13">
+        <v>0.0964988305617438</v>
+      </c>
+      <c r="Q13">
+        <v>0.3438359925855555</v>
+      </c>
+      <c r="R13">
+        <v>3.09452393327</v>
+      </c>
+      <c r="S13">
+        <v>0.001233528907648127</v>
+      </c>
+      <c r="T13">
+        <v>0.001233528907648127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.255448</v>
+      </c>
+      <c r="I14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.581373333333334</v>
+      </c>
+      <c r="N14">
+        <v>28.74412</v>
+      </c>
+      <c r="O14">
+        <v>0.6094546925631529</v>
+      </c>
+      <c r="P14">
+        <v>0.6094546925631529</v>
+      </c>
+      <c r="Q14">
+        <v>39.14134088508444</v>
+      </c>
+      <c r="R14">
+        <v>352.27206796576</v>
+      </c>
+      <c r="S14">
+        <v>0.1404215280162892</v>
+      </c>
+      <c r="T14">
+        <v>0.1404215280162892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.255448</v>
+      </c>
+      <c r="I15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.468510333333334</v>
+      </c>
+      <c r="N15">
+        <v>13.405531</v>
+      </c>
+      <c r="O15">
+        <v>0.284234263364153</v>
+      </c>
+      <c r="P15">
+        <v>0.2842342633641529</v>
+      </c>
+      <c r="Q15">
+        <v>18.25453200920978</v>
+      </c>
+      <c r="R15">
+        <v>164.290788082888</v>
+      </c>
+      <c r="S15">
+        <v>0.06548905121777021</v>
+      </c>
+      <c r="T15">
+        <v>0.0654890512177702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="H13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="I13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="J13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.48474093630563</v>
-      </c>
-      <c r="N13">
-        <v>1.48474093630563</v>
-      </c>
-      <c r="O13">
-        <v>0.09586507290165604</v>
-      </c>
-      <c r="P13">
-        <v>0.09586507290165604</v>
-      </c>
-      <c r="Q13">
-        <v>5.175446307327237</v>
-      </c>
-      <c r="R13">
-        <v>5.175446307327237</v>
-      </c>
-      <c r="S13">
-        <v>0.0207878275323638</v>
-      </c>
-      <c r="T13">
-        <v>0.0207878275323638</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.255448</v>
+      </c>
+      <c r="I16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.15426</v>
+      </c>
+      <c r="N16">
+        <v>0.46278</v>
+      </c>
+      <c r="O16">
+        <v>0.00981221351095027</v>
+      </c>
+      <c r="P16">
+        <v>0.009812213510950268</v>
+      </c>
+      <c r="Q16">
+        <v>0.6301751361599999</v>
+      </c>
+      <c r="R16">
+        <v>5.671576225439999</v>
+      </c>
+      <c r="S16">
+        <v>0.002260784979167158</v>
+      </c>
+      <c r="T16">
+        <v>0.002260784979167158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H17">
+        <v>12.255448</v>
+      </c>
+      <c r="I17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.517079666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.551239</v>
+      </c>
+      <c r="O17">
+        <v>0.09649883056174381</v>
+      </c>
+      <c r="P17">
+        <v>0.0964988305617438</v>
+      </c>
+      <c r="Q17">
+        <v>6.197496988896888</v>
+      </c>
+      <c r="R17">
+        <v>55.777472900072</v>
+      </c>
+      <c r="S17">
+        <v>0.02223383198884947</v>
+      </c>
+      <c r="T17">
+        <v>0.02223383198884947</v>
       </c>
     </row>
   </sheetData>
